--- a/confusion_matrix.xlsx
+++ b/confusion_matrix.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomaskuttyreji/Documents/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Documents/GitHub/Notes-Repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE7C617-58CF-8D48-BC35-5ED65A20C63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34208D8F-FFCA-CF41-B7AC-0B56C1681D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{5F39D018-576F-5646-ABD7-B59E2360AF76}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{5F39D018-576F-5646-ABD7-B59E2360AF76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -168,7 +168,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -400,53 +400,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -457,29 +418,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -492,7 +447,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -507,13 +462,52 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -544,8 +538,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4114800" cy="800100"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -678,7 +672,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -752,8 +746,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4140200" cy="812800"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -936,7 +930,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -1010,8 +1004,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4127500" cy="812800"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -1171,7 +1165,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -1245,8 +1239,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4152900" cy="812800"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -1540,7 +1534,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -1671,8 +1665,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4140200" cy="812800"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -1828,7 +1822,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -1902,8 +1896,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4140200" cy="812800"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -2086,7 +2080,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -2160,8 +2154,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4140200" cy="812800"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -2312,7 +2306,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -2386,8 +2380,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4140200" cy="812800"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -2538,7 +2532,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -2926,544 +2920,544 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E995B6-B99E-4C46-95FB-E1B60C7AE1D8}">
   <dimension ref="B2:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="13" width="10.83203125" style="4"/>
-    <col min="14" max="14" width="14.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.83203125" style="4"/>
-    <col min="17" max="17" width="16.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="13" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="N2" s="3" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="N2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
     </row>
     <row r="3" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
     </row>
     <row r="4" spans="2:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
     </row>
     <row r="5" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
-      <c r="N6" s="17" t="s">
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="28"/>
+      <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="P6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:20" ht="19" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="12"/>
-      <c r="N7" s="18" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
+      <c r="N7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7" s="7">
         <v>7</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="7">
         <v>8</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="7">
         <v>9</v>
       </c>
-      <c r="R7" s="19">
+      <c r="R7" s="6">
         <f>SUM(O7:Q7)</f>
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:20" ht="19" x14ac:dyDescent="0.2">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="13" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="12"/>
-      <c r="N8" s="18" t="s">
+      <c r="F8" s="23"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+      <c r="N8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8" s="7">
         <v>1</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="7">
         <v>2</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="7">
         <v>3</v>
       </c>
-      <c r="R8" s="19">
+      <c r="R8" s="6">
         <f t="shared" ref="R8:R9" si="0">SUM(O8:Q8)</f>
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:20" ht="19" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="3">
         <v>18</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="3">
         <v>38</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="3">
         <f>SUM(D9:E9)</f>
         <v>56</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12"/>
-      <c r="N9" s="18" t="s">
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="31"/>
+      <c r="N9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="22">
+      <c r="O9" s="7">
         <v>3</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="7">
         <v>2</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="7">
         <v>1</v>
       </c>
-      <c r="R9" s="19">
+      <c r="R9" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="19" x14ac:dyDescent="0.2">
-      <c r="B10" s="6"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="3">
         <v>25</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="3">
         <v>57</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="3">
         <f>SUM(D10:E10)</f>
         <v>82</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12"/>
-      <c r="N10" s="21" t="s">
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="31"/>
+      <c r="N10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="6">
         <f>SUM(O7:O9)</f>
         <v>11</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="6">
         <f t="shared" ref="P10:R10" si="1">SUM(P7:P9)</f>
         <v>12</v>
       </c>
-      <c r="Q10" s="19">
+      <c r="Q10" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="R10" s="19">
+      <c r="R10" s="6">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:20" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="13">
+      <c r="C11" s="23"/>
+      <c r="D11" s="3">
         <f>SUM(D9:D10)</f>
         <v>43</v>
       </c>
-      <c r="E11" s="13">
-        <f t="shared" ref="E11:F11" si="2">SUM(E9:E10)</f>
+      <c r="E11" s="3">
+        <f>SUM(E9:E10)</f>
         <v>95</v>
       </c>
-      <c r="F11" s="13">
-        <f t="shared" si="2"/>
+      <c r="F11" s="3">
+        <f>SUM(F9:F10)</f>
         <v>138</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="16"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="34"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="N13" s="17"/>
-      <c r="O13" s="21" t="s">
+      <c r="N13" s="4"/>
+      <c r="O13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P13" s="17" t="s">
+      <c r="P13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q13" s="17" t="s">
+      <c r="Q13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R13" s="17" t="s">
+      <c r="R13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S13" s="23" t="s">
+      <c r="S13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="T13" s="23" t="s">
+      <c r="T13" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="N14" s="17" t="s">
+      <c r="N14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O14" s="4">
         <f>O7</f>
         <v>7</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14" s="4">
         <f>P7+Q7</f>
         <v>17</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="4">
         <f>O8+O9</f>
         <v>4</v>
       </c>
-      <c r="R14" s="17">
+      <c r="R14" s="4">
         <f>R$10-SUM(O14:Q14)</f>
         <v>8</v>
       </c>
-      <c r="S14" s="24">
+      <c r="S14" s="9">
         <f>O14/(O14+P14)</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="T14" s="24">
+      <c r="T14" s="9">
         <f>O14/(O14+Q14)</f>
         <v>0.63636363636363635</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="N15" s="19" t="s">
+      <c r="N15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="19">
+      <c r="O15" s="6">
         <f>P8</f>
         <v>2</v>
       </c>
-      <c r="P15" s="19">
+      <c r="P15" s="6">
         <f>O8+Q8</f>
         <v>4</v>
       </c>
-      <c r="Q15" s="19">
+      <c r="Q15" s="6">
         <f>P7+P9</f>
         <v>10</v>
       </c>
-      <c r="R15" s="17">
+      <c r="R15" s="4">
         <f>R$10-SUM(O15:Q15)</f>
         <v>20</v>
       </c>
-      <c r="S15" s="24">
-        <f t="shared" ref="S15:S16" si="3">O15/(O15+P15)</f>
+      <c r="S15" s="9">
+        <f t="shared" ref="S15:S16" si="2">O15/(O15+P15)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="T15" s="24">
-        <f t="shared" ref="T15:T16" si="4">O15/(O15+Q15)</f>
+      <c r="T15" s="9">
+        <f t="shared" ref="T15:T16" si="3">O15/(O15+Q15)</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="N16" s="19" t="s">
+      <c r="N16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16" s="6">
         <f>Q9</f>
         <v>1</v>
       </c>
-      <c r="P16" s="19">
+      <c r="P16" s="6">
         <f>O9+P9</f>
         <v>5</v>
       </c>
-      <c r="Q16" s="19">
+      <c r="Q16" s="6">
         <f>Q7+Q8</f>
         <v>12</v>
       </c>
-      <c r="R16" s="17">
+      <c r="R16" s="4">
         <f>R$10-SUM(O16:Q16)</f>
         <v>18</v>
       </c>
-      <c r="S16" s="24">
+      <c r="S16" s="9">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="T16" s="9">
         <f t="shared" si="3"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="T16" s="24">
-        <f t="shared" si="4"/>
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="17" spans="14:20" x14ac:dyDescent="0.2">
-      <c r="N17" s="38" t="s">
+      <c r="N17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="38">
+      <c r="O17" s="13">
         <f>SUM(O14:O16)</f>
         <v>10</v>
       </c>
-      <c r="P17" s="38">
-        <f t="shared" ref="P17:R17" si="5">SUM(P14:P16)</f>
+      <c r="P17" s="13">
+        <f t="shared" ref="P17:R17" si="4">SUM(P14:P16)</f>
         <v>26</v>
       </c>
-      <c r="Q17" s="38">
-        <f t="shared" si="5"/>
+      <c r="Q17" s="13">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="R17" s="38">
-        <f t="shared" si="5"/>
+      <c r="R17" s="13">
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="14:20" x14ac:dyDescent="0.2">
-      <c r="N19" s="26" t="s">
+      <c r="N19" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
     </row>
     <row r="20" spans="14:20" x14ac:dyDescent="0.2">
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
     </row>
     <row r="21" spans="14:20" x14ac:dyDescent="0.2">
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
     </row>
     <row r="23" spans="14:20" x14ac:dyDescent="0.2">
-      <c r="N23" s="17" t="s">
+      <c r="N23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O23" s="25">
+      <c r="O23" s="10">
         <f>AVERAGE(S14:S16)</f>
         <v>0.2638888888888889</v>
       </c>
     </row>
     <row r="24" spans="14:20" x14ac:dyDescent="0.2">
-      <c r="N24" s="20" t="s">
+      <c r="N24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O24" s="25">
+      <c r="O24" s="10">
         <f>AVERAGE(T14:T16)</f>
         <v>0.29331779331779329</v>
       </c>
     </row>
     <row r="25" spans="14:20" x14ac:dyDescent="0.2">
-      <c r="N25" s="20" t="s">
+      <c r="N25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="25">
+      <c r="O25" s="10">
         <f>O17/(O17+P17)</f>
         <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="26" spans="14:20" x14ac:dyDescent="0.2">
-      <c r="N26" s="23" t="s">
+      <c r="N26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="24">
+      <c r="O26" s="9">
         <f>O17/(O17+Q17)</f>
         <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="27" spans="14:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="14:20" x14ac:dyDescent="0.2">
-      <c r="N28" s="29" t="s">
+      <c r="N28" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="31"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="16"/>
     </row>
     <row r="29" spans="14:20" x14ac:dyDescent="0.2">
-      <c r="N29" s="32"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="34"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="19"/>
     </row>
     <row r="30" spans="14:20" x14ac:dyDescent="0.2">
-      <c r="N30" s="32"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="34"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="19"/>
     </row>
     <row r="31" spans="14:20" x14ac:dyDescent="0.2">
-      <c r="N31" s="32"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="34"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="19"/>
     </row>
     <row r="32" spans="14:20" x14ac:dyDescent="0.2">
-      <c r="N32" s="32"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="34"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="19"/>
     </row>
     <row r="33" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="N33" s="32"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="34"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="19"/>
     </row>
     <row r="34" spans="6:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N34" s="35"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="37"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="22"/>
     </row>
     <row r="41" spans="6:20" ht="22" x14ac:dyDescent="0.3">
-      <c r="F41" s="27"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="6:20" ht="22" x14ac:dyDescent="0.3">
-      <c r="F42" s="28"/>
+      <c r="F42" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/confusion_matrix.xlsx
+++ b/confusion_matrix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Documents/GitHub/Notes-Repository/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6a3176f3d9d5ceb7/GitHub/Notes-Repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34208D8F-FFCA-CF41-B7AC-0B56C1681D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{34208D8F-FFCA-CF41-B7AC-0B56C1681D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4082ED8-AC81-BF4A-B852-FACACAB2FFEC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{5F39D018-576F-5646-ABD7-B59E2360AF76}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Classification Matrix</t>
   </si>
@@ -162,6 +162,42 @@
       <t xml:space="preserve"> is classification-threshold-invariant. It measures the quality of the model's predictions irrespective of what classification threshold is chosen </t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">If we lower the beta then f score gives more priority to precision , put ( beta= 0) the f becomes equal to precision, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">if beta &lt;1, more weight to precision </t>
+  </si>
+  <si>
+    <t xml:space="preserve">if beta &gt;1 , more weight to recall </t>
+  </si>
+  <si>
+    <t>if beta = 1 , balances the precision and recall</t>
+  </si>
+  <si>
+    <t>Macro Averaging : computes the precision and recall for each class separately. Then take the unweighted average across</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all. Categories. This method gives importance to all classes equally. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micro Averaging : computes total TP,TN,FP,FN across all levels, then computes precision and recall from these totals. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This method gives more weight to larger classes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Averaging - This is similar to the macro averaging, but instead of treating all classes equally , it weights by the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of instances in that class. </t>
+  </si>
+  <si>
+    <t>Unlike macro, it accounts for how frequently each class appears</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlike micro, it ensures that small classes still have an impact </t>
+  </si>
 </sst>
 </file>
 
@@ -170,7 +206,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -233,12 +269,6 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF202124"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
@@ -400,7 +430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -431,35 +461,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -504,6 +533,8 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,14 +563,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4114800" cy="800100"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -553,7 +584,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="838200" y="2870200"/>
+              <a:off x="812800" y="2628900"/>
               <a:ext cx="4114800" cy="800100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -672,7 +703,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -686,7 +717,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="838200" y="2870200"/>
+              <a:off x="812800" y="2628900"/>
               <a:ext cx="4114800" cy="800100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -741,13 +772,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4140200" cy="812800"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -761,7 +792,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4140200" y="2857500"/>
+              <a:off x="5778500" y="2654300"/>
               <a:ext cx="4140200" cy="812800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -930,7 +961,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -944,7 +975,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4140200" y="2857500"/>
+              <a:off x="5778500" y="2654300"/>
               <a:ext cx="4140200" cy="812800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -998,14 +1029,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4127500" cy="812800"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -1019,7 +1050,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="838200" y="3886200"/>
+              <a:off x="800100" y="3581400"/>
               <a:ext cx="4127500" cy="812800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1165,7 +1196,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -1179,7 +1210,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="838200" y="3886200"/>
+              <a:off x="800100" y="3581400"/>
               <a:ext cx="4127500" cy="812800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1233,14 +1264,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4152900" cy="812800"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -1254,7 +1285,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13208000" y="1638300"/>
+              <a:off x="5765800" y="3568700"/>
               <a:ext cx="4152900" cy="812800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1467,6 +1498,16 @@
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="bg1"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
                               <m:t>𝛽</m:t>
                             </m:r>
                           </m:e>
@@ -1509,7 +1550,7 @@
                             </a:solidFill>
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>+</m:t>
+                          <m:t>)+</m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="en-US" sz="1600" b="0" i="1">
@@ -1534,7 +1575,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -1548,7 +1589,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13208000" y="1638300"/>
+              <a:off x="5765800" y="3568700"/>
               <a:ext cx="4152900" cy="812800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1634,7 +1675,7 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝛽^2  ∗ </a:t>
+                <a:t>〖(𝛽〗^2  ∗ </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1600" b="0" i="0">
@@ -1643,7 +1684,7 @@
                   </a:solidFill>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑃𝑟𝑒𝑐𝑖𝑠𝑖𝑜𝑛+𝑅𝑒𝑐𝑎𝑙𝑙)</a:t>
+                <a:t>𝑃𝑟𝑒𝑐𝑖𝑠𝑖𝑜𝑛)+𝑅𝑒𝑐𝑎𝑙𝑙)</a:t>
               </a:r>
               <a:endParaRPr lang="en-GB" sz="1200">
                 <a:solidFill>
@@ -1659,14 +1700,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4140200" cy="812800"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -1680,7 +1721,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4127500" y="4889500"/>
+              <a:off x="5765800" y="4495800"/>
               <a:ext cx="4140200" cy="812800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1822,7 +1863,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -1836,7 +1877,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4127500" y="4889500"/>
+              <a:off x="5765800" y="4495800"/>
               <a:ext cx="4140200" cy="812800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1890,14 +1931,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4140200" cy="812800"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -1911,7 +1952,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4127500" y="5905500"/>
+              <a:off x="5753100" y="5384800"/>
               <a:ext cx="4140200" cy="812800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2080,7 +2121,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -2094,7 +2135,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4127500" y="5905500"/>
+              <a:off x="5753100" y="5384800"/>
               <a:ext cx="4140200" cy="812800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2148,14 +2189,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4140200" cy="812800"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -2169,7 +2210,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="838200" y="5905500"/>
+              <a:off x="787400" y="5397500"/>
               <a:ext cx="4140200" cy="812800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2306,7 +2347,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -2320,7 +2361,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="838200" y="5905500"/>
+              <a:off x="787400" y="5397500"/>
               <a:ext cx="4140200" cy="812800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2374,14 +2415,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4140200" cy="812800"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -2395,7 +2436,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="825500" y="4889500"/>
+              <a:off x="787400" y="4495800"/>
               <a:ext cx="4140200" cy="812800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2532,7 +2573,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -2546,7 +2587,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="825500" y="4889500"/>
+              <a:off x="787400" y="4495800"/>
               <a:ext cx="4140200" cy="812800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2591,6 +2632,189 @@
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>55129</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>26266</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1647826" cy="404726"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{599B3C2A-A473-9831-D028-AE163E96042C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12654106" y="6996834"/>
+              <a:ext cx="1647826" cy="404726"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑊𝑒𝑖𝑔h</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐴𝑝𝑝𝑙𝑒</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>11</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>36</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{599B3C2A-A473-9831-D028-AE163E96042C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12654106" y="6996834"/>
+              <a:ext cx="1647826" cy="404726"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑊𝑒𝑖𝑔ℎ𝑡_𝐴𝑝𝑝𝑙𝑒=11/36</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1400"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2918,10 +3142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E995B6-B99E-4C46-95FB-E1B60C7AE1D8}">
-  <dimension ref="B2:T42"/>
+  <dimension ref="B2:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2934,87 +3158,87 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="N2" s="35" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="N2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
     </row>
     <row r="3" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
     </row>
     <row r="4" spans="2:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
     </row>
     <row r="5" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:20" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="28"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27"/>
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3034,14 +3258,14 @@
     <row r="7" spans="2:20" ht="19" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="31"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="30"/>
       <c r="N7" s="5" t="s">
         <v>7</v>
       </c>
@@ -3068,12 +3292,12 @@
       <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
+      <c r="F8" s="22"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
       <c r="N8" s="5" t="s">
         <v>8</v>
       </c>
@@ -3092,7 +3316,7 @@
       </c>
     </row>
     <row r="9" spans="2:20" ht="19" x14ac:dyDescent="0.2">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -3108,11 +3332,11 @@
         <f>SUM(D9:E9)</f>
         <v>56</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="31"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
       <c r="N9" s="5" t="s">
         <v>9</v>
       </c>
@@ -3131,7 +3355,7 @@
       </c>
     </row>
     <row r="10" spans="2:20" ht="19" x14ac:dyDescent="0.2">
-      <c r="B10" s="23"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
@@ -3145,11 +3369,11 @@
         <f>SUM(D10:E10)</f>
         <v>82</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="31"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
       <c r="N10" s="5" t="s">
         <v>3</v>
       </c>
@@ -3171,10 +3395,10 @@
       </c>
     </row>
     <row r="11" spans="2:20" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="3">
         <f>SUM(D9:D10)</f>
         <v>43</v>
@@ -3187,11 +3411,11 @@
         <f>SUM(F9:F10)</f>
         <v>138</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="34"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="N13" s="4"/>
@@ -3301,172 +3525,224 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="17" spans="14:20" x14ac:dyDescent="0.2">
-      <c r="N17" s="13" t="s">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="12">
         <f>SUM(O14:O16)</f>
         <v>10</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="12">
         <f t="shared" ref="P17:R17" si="4">SUM(P14:P16)</f>
         <v>26</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="12">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="R17" s="13">
+      <c r="R17" s="12">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="14:20" x14ac:dyDescent="0.2">
-      <c r="N19" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-    </row>
-    <row r="20" spans="14:20" x14ac:dyDescent="0.2">
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-    </row>
-    <row r="21" spans="14:20" x14ac:dyDescent="0.2">
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-    </row>
-    <row r="23" spans="14:20" x14ac:dyDescent="0.2">
-      <c r="N23" s="4" t="s">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O19" s="10">
         <f>AVERAGE(S14:S16)</f>
         <v>0.2638888888888889</v>
       </c>
+      <c r="Q19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="10">
+        <f>O17/(O17+P17)</f>
+        <v>0.27777777777777779</v>
+      </c>
     </row>
-    <row r="24" spans="14:20" x14ac:dyDescent="0.2">
-      <c r="N24" s="4" t="s">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O24" s="10">
+      <c r="O20" s="10">
         <f>AVERAGE(T14:T16)</f>
         <v>0.29331779331779329</v>
       </c>
-    </row>
-    <row r="25" spans="14:20" x14ac:dyDescent="0.2">
-      <c r="N25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O25" s="10">
-        <f>O17/(O17+P17)</f>
-        <v>0.27777777777777779</v>
-      </c>
-    </row>
-    <row r="26" spans="14:20" x14ac:dyDescent="0.2">
-      <c r="N26" s="8" t="s">
+      <c r="Q20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="9">
+      <c r="R20" s="9">
         <f>O17/(O17+Q17)</f>
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="27" spans="14:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="14:20" x14ac:dyDescent="0.2">
-      <c r="N28" s="14" t="s">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N27" s="36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N29" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N30" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="P36" s="37"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="N37" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="N38" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D39" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+    </row>
+    <row r="42" spans="2:20" ht="22" x14ac:dyDescent="0.3">
+      <c r="F42" s="11"/>
+    </row>
+    <row r="43" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="N44" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="16"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="15"/>
     </row>
-    <row r="29" spans="14:20" x14ac:dyDescent="0.2">
-      <c r="N29" s="17"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="19"/>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="N45" s="16"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="18"/>
     </row>
-    <row r="30" spans="14:20" x14ac:dyDescent="0.2">
-      <c r="N30" s="17"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="19"/>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="N46" s="16"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="18"/>
     </row>
-    <row r="31" spans="14:20" x14ac:dyDescent="0.2">
-      <c r="N31" s="17"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="19"/>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="N47" s="16"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="18"/>
     </row>
-    <row r="32" spans="14:20" x14ac:dyDescent="0.2">
-      <c r="N32" s="17"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="19"/>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="N48" s="16"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="18"/>
     </row>
-    <row r="33" spans="6:20" x14ac:dyDescent="0.2">
-      <c r="N33" s="17"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="19"/>
+    <row r="49" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="N49" s="16"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="18"/>
     </row>
-    <row r="34" spans="6:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N34" s="20"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="22"/>
-    </row>
-    <row r="41" spans="6:20" ht="22" x14ac:dyDescent="0.3">
-      <c r="F41" s="11"/>
-    </row>
-    <row r="42" spans="6:20" ht="22" x14ac:dyDescent="0.3">
-      <c r="F42" s="12"/>
+    <row r="50" spans="14:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N50" s="19"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="N28:T34"/>
+    <mergeCell ref="N44:T50"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B2:L4"/>
     <mergeCell ref="H6:L11"/>
     <mergeCell ref="N2:T4"/>
-    <mergeCell ref="N19:T21"/>
+    <mergeCell ref="D39:J41"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="D6:E7"/>
     <mergeCell ref="F6:F8"/>
